--- a/Arquivos/Grupos_e_Personas.xlsx
+++ b/Arquivos/Grupos_e_Personas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Documents\GitHub\SocialPlanning\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9007A8-D294-4D69-BCEE-E20312A263E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C09AAA-F2C8-4E45-94FB-04016481BADE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6850" xr2:uid="{4CD8FC44-E1CB-4257-9B79-BC29A3467E14}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="47">
   <si>
     <t>Tipo</t>
   </si>
@@ -150,9 +150,6 @@
     <t>Enfrenta problemas de produtividade e ansiedade</t>
   </si>
   <si>
-    <t>Desempregado mas sem problemas de saúde</t>
-  </si>
-  <si>
     <t>Problemas de adaptação na escola levaram a ansiedade</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>Fernando</t>
+  </si>
+  <si>
+    <t>Desempregado com estresse e insônia</t>
   </si>
 </sst>
 </file>
@@ -262,12 +262,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -275,6 +269,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F607F043-13BF-485F-802E-2C07BE01764D}">
-  <dimension ref="C1:I32"/>
+  <dimension ref="C1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -603,478 +603,478 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>4</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="6" t="s">
+      <c r="H6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>6</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="G7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>7</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="F8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>8</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="8" t="s">
+      <c r="F9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D10" s="5">
+        <v>9</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="E12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="E13" s="7"/>
+      <c r="F13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="E14" s="1"/>
+      <c r="F14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="E15" s="2"/>
+      <c r="F15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="E16" s="5"/>
+      <c r="F16" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D10" s="7">
-        <v>9</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>46</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+      <c r="E20" s="4">
+        <v>51</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="4">
+        <v>3</v>
+      </c>
+      <c r="E21" s="4">
+        <v>30</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="4">
+        <v>4</v>
+      </c>
+      <c r="E22" s="4">
+        <v>35</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="4">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4">
+        <v>38</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="4">
+        <v>6</v>
+      </c>
+      <c r="E24" s="4">
+        <v>17</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="4">
+        <v>7</v>
+      </c>
+      <c r="E25" s="4">
+        <v>14</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="4">
+        <v>8</v>
+      </c>
+      <c r="E26" s="4">
+        <v>16</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="E12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="E13" s="9"/>
-      <c r="F13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="E14" s="3"/>
-      <c r="F14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="E15" s="4"/>
-      <c r="F15" s="2" t="s">
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="4">
+        <v>9</v>
+      </c>
+      <c r="E27" s="4">
         <v>25</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="E16" s="7"/>
-      <c r="F16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C24" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
-      <c r="E24" s="6">
-        <v>26</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="F27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C25" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="6">
-        <v>2</v>
-      </c>
-      <c r="E25" s="6">
-        <v>51</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="6" t="s">
+      <c r="G27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="6">
-        <v>3</v>
-      </c>
-      <c r="E26" s="6">
-        <v>30</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="6">
-        <v>4</v>
-      </c>
-      <c r="E27" s="6">
-        <v>35</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="6">
-        <v>5</v>
-      </c>
-      <c r="E28" s="6">
-        <v>38</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="6">
-        <v>6</v>
-      </c>
-      <c r="E29" s="6">
-        <v>17</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="6">
-        <v>7</v>
-      </c>
-      <c r="E30" s="6">
-        <v>14</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C31" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="6">
-        <v>8</v>
-      </c>
-      <c r="E31" s="6">
-        <v>16</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C32" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="6">
-        <v>9</v>
-      </c>
-      <c r="E32" s="6">
-        <v>25</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>43</v>
+      <c r="I27" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
